--- a/results/CV_results.xlsx
+++ b/results/CV_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -58,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -142,16 +143,16 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -315,23 +316,56 @@
       <c r="A25" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>0.36</v>
+      </c>
       <c r="C25" s="0" t="n">
-        <v>-1.52</v>
+        <v>0.65</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="B26" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>512</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>-2.2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -360,9 +394,6 @@
       <c r="A32" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>-1.52</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
@@ -405,32 +436,20 @@
       <c r="A39" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>-8.89</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>-3.28</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>-4.21</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>512</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>-7.88</v>
       </c>
     </row>
   </sheetData>

--- a/results/CV_results.xlsx
+++ b/results/CV_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -53,7 +53,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -74,6 +74,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,7 +137,299 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$25:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="97356321"/>
+        <c:axId val="29241342"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="97356321"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29241342"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="29241342"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="97356321"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>454320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>746280</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5778720" y="2189880"/>
+        <a:ext cx="5759280" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -143,16 +440,13 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I28" activeCellId="0" sqref="I28"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -181,24 +475,57 @@
       <c r="A3" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="B3" s="0" t="n">
+        <v>-0.11</v>
+      </c>
       <c r="C3" s="0" t="n">
-        <v>-1.51</v>
+        <v>-0.05</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="B4" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>-0.31</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-0.84</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>512</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-1.12</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
@@ -226,9 +553,6 @@
       <c r="A10" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>-1.52</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -271,24 +595,57 @@
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="B17" s="0" t="n">
+        <v>0.45</v>
+      </c>
       <c r="C17" s="0" t="n">
-        <v>-1.52</v>
+        <v>0.58</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="B19" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>512</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
@@ -320,7 +677,7 @@
         <v>0.36</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>0.46</v>
@@ -334,7 +691,7 @@
         <v>0.41</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0.5</v>
@@ -394,21 +751,54 @@
       <c r="A32" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="B32" s="0" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="B33" s="0" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="B34" s="0" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>512</v>
       </c>
+      <c r="B35" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>-0.52</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
@@ -436,20 +826,32 @@
       <c r="A39" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="C39" s="0" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="C40" s="0" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="C41" s="0" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>512</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -460,5 +862,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/CV_results.xlsx
+++ b/results/CV_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t xml:space="preserve">CED</t>
   </si>
@@ -28,19 +28,28 @@
     <t xml:space="preserve">R2</t>
   </si>
   <si>
+    <t xml:space="preserve">1000 iter; lr = 0.01, beta=0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GWP</t>
+  </si>
+  <si>
     <t xml:space="preserve">500 iter; lr = 0.01, beta=0.01</t>
   </si>
   <si>
-    <t xml:space="preserve">GWP</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acidification</t>
   </si>
   <si>
     <t xml:space="preserve">EI99</t>
   </si>
   <si>
+    <t xml:space="preserve">200  iter; lr = 0.01, beta=0.01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ecosystem Quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500 iter; lr = 0.005, beta=0.01</t>
   </si>
   <si>
     <t xml:space="preserve">Human Health</t>
@@ -53,7 +62,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -77,16 +86,28 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,8 +144,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,7 +225,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -231,7 +256,56 @@
               </a:solidFill>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586">
+                  <a:alpha val="-17698000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="6407280">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:ln w="6022292400">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:ln w="6035662080">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c">
+                  <a:alpha val="-1446784704"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="2067066720">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -249,7 +323,7 @@
                   <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.6</c:v>
@@ -270,11 +344,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="97356321"/>
-        <c:axId val="29241342"/>
+        <c:axId val="92229876"/>
+        <c:axId val="46433131"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="97356321"/>
+        <c:axId val="92229876"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -309,14 +383,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="29241342"/>
+        <c:crossAx val="46433131"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="29241342"/>
+        <c:axId val="46433131"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +405,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -360,7 +434,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97356321"/>
+        <c:crossAx val="92229876"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -407,10 +481,10 @@
       <xdr:rowOff>76680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>746280</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>394200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -418,8 +492,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5778720" y="2189880"/>
-        <a:ext cx="5759280" cy="3241440"/>
+        <a:off x="5197680" y="2189880"/>
+        <a:ext cx="5340600" cy="3356280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -440,13 +514,16 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6020408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,7 +567,7 @@
         <v>64</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0.25</v>
@@ -503,8 +580,8 @@
       <c r="A5" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.23</v>
+      <c r="B5" s="1" t="n">
+        <v>0.51</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.18</v>
@@ -518,7 +595,7 @@
         <v>512</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.1</v>
+        <v>0.38</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.35</v>
@@ -535,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,13 +648,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -626,7 +703,7 @@
       <c r="B19" s="0" t="n">
         <v>0.56</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>0.75</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -649,13 +726,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -690,8 +767,8 @@
       <c r="B26" s="0" t="n">
         <v>0.41</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <v>0.65</v>
+      <c r="C26" s="1" t="n">
+        <v>0.66</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0.5</v>
@@ -727,13 +804,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +832,10 @@
         <v>-0.33</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0.06</v>
+        <v>-0.05</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,10 +846,10 @@
         <v>-0.29</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
+        <v>0.29</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,11 +859,11 @@
       <c r="B34" s="0" t="n">
         <v>-0.18</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>0.19</v>
+      <c r="C34" s="1" t="n">
+        <v>0.47</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.31</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -794,21 +874,21 @@
         <v>0.05</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>-0.52</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -819,38 +899,62 @@
         <v>2</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="B39" s="0" t="n">
+        <v>0.1</v>
+      </c>
       <c r="C39" s="0" t="n">
         <v>0.15</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="B40" s="0" t="n">
+        <v>0.12</v>
+      </c>
       <c r="C40" s="0" t="n">
         <v>0.11</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="B41" s="0" t="n">
+        <v>0.22</v>
+      </c>
       <c r="C41" s="0" t="n">
         <v>0.25</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>512</v>
       </c>
+      <c r="B42" s="1" t="n">
+        <v>0.35</v>
+      </c>
       <c r="C42" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D42" s="0" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/results/CV_results.xlsx
+++ b/results/CV_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t xml:space="preserve">CED</t>
   </si>
@@ -34,10 +34,13 @@
     <t xml:space="preserve">GWP</t>
   </si>
   <si>
+    <t xml:space="preserve">800 iter; lr = 0.001, beta=0.01, RELU, AdamOptimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acidification</t>
+  </si>
+  <si>
     <t xml:space="preserve">500 iter; lr = 0.01, beta=0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acidification</t>
   </si>
   <si>
     <t xml:space="preserve">EI99</t>
@@ -225,7 +228,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -260,9 +263,7 @@
             <c:idx val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="004586">
-                  <a:alpha val="-17698000"/>
-                </a:srgbClr>
+                <a:srgbClr val="004586"/>
               </a:solidFill>
               <a:ln w="6407280">
                 <a:noFill/>
@@ -275,7 +276,7 @@
               <a:solidFill>
                 <a:srgbClr val="ff420e"/>
               </a:solidFill>
-              <a:ln w="6022292400">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -286,7 +287,7 @@
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
-              <a:ln w="6035662080">
+              <a:ln>
                 <a:noFill/>
               </a:ln>
             </c:spPr>
@@ -295,9 +296,7 @@
             <c:idx val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579d1c">
-                  <a:alpha val="-1446784704"/>
-                </a:srgbClr>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
               <a:ln w="2067066720">
                 <a:noFill/>
@@ -305,6 +304,42 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -344,11 +379,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="92229876"/>
-        <c:axId val="46433131"/>
+        <c:axId val="55900104"/>
+        <c:axId val="94296130"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92229876"/>
+        <c:axId val="55900104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -383,14 +418,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="46433131"/>
+        <c:crossAx val="94296130"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46433131"/>
+        <c:axId val="94296130"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +469,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92229876"/>
+        <c:crossAx val="55900104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -482,9 +517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>394200</xdr:colOff>
+      <xdr:colOff>393840</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -492,8 +527,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5197680" y="2189880"/>
-        <a:ext cx="5340600" cy="3356280"/>
+        <a:off x="5131080" y="2189880"/>
+        <a:ext cx="5254200" cy="3355920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -514,16 +549,16 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -630,21 +665,57 @@
       <c r="A10" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>-2.11</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>64</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>128</v>
       </c>
+      <c r="B12" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>512</v>
       </c>
+      <c r="B13" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>-5.62</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
@@ -654,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,13 +797,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -804,13 +875,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,7 +931,7 @@
         <v>-0.18</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>0.06</v>
@@ -882,13 +953,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>1</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
